--- a/public/result.xlsx
+++ b/public/result.xlsx
@@ -1276,7 +1276,10 @@
       <c r="I12" s="33"/>
       <c r="J12" s="30"/>
       <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
+      <c r="L12" s="35">
+        <f>F12</f>
+        <v>12</v>
+      </c>
       <c r="M12" s="36"/>
     </row>
     <row r="13" spans="1:13" customHeight="1" ht="15">
@@ -1302,7 +1305,10 @@
       <c r="I13" s="24"/>
       <c r="J13" s="25"/>
       <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
+      <c r="L13" s="27">
+        <f>L12+F13-H13</f>
+        <v>112</v>
+      </c>
       <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13">
@@ -1328,7 +1334,10 @@
       <c r="I14" s="24"/>
       <c r="J14" s="25"/>
       <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
+      <c r="L14" s="27">
+        <f>L13+F14-H14</f>
+        <v>116</v>
+      </c>
       <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:13">
@@ -1354,7 +1363,10 @@
       <c r="I15" s="24"/>
       <c r="J15" s="25"/>
       <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
+      <c r="L15" s="27">
+        <f>L14+F15-H15</f>
+        <v>129</v>
+      </c>
       <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13">
@@ -1380,7 +1392,10 @@
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
       <c r="K16" s="28"/>
-      <c r="L16" s="27"/>
+      <c r="L16" s="27">
+        <f>L15+F16-H16</f>
+        <v>131</v>
+      </c>
       <c r="M16" s="29"/>
     </row>
     <row r="17" spans="1:13">
@@ -1406,7 +1421,10 @@
       <c r="I17" s="24"/>
       <c r="J17" s="25"/>
       <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
+      <c r="L17" s="27">
+        <f>L16+F17-H17</f>
+        <v>133.5</v>
+      </c>
       <c r="M17" s="29"/>
     </row>
     <row r="18" spans="1:13">
@@ -1432,7 +1450,10 @@
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
       <c r="K18" s="26"/>
-      <c r="L18" s="27"/>
+      <c r="L18" s="27">
+        <f>L17+F18-H18</f>
+        <v>135.5</v>
+      </c>
       <c r="M18" s="29"/>
     </row>
     <row r="19" spans="1:13">
